--- a/data/fuzzy_rules/social_interpretation3/rules.xlsx
+++ b/data/fuzzy_rules/social_interpretation3/rules.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Rule</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>IF (PUBLIC IS vhpc) THEN (VOLUME IS high_volume)</t>
+  </si>
+  <si>
+    <t>IF (PERSONAL_VOCABULARY IS high) THEN (PERSONAL IS vhpc)</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,23 +447,23 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -468,9 +471,17 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/fuzzy_rules/social_interpretation3/rules.xlsx
+++ b/data/fuzzy_rules/social_interpretation3/rules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddellanna\surfdrive\PostDoc\Notes\NormsSAR\NormativeBDISAR\data\fuzzy_rules\social_interpretation3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddellanna\surfdrive\PostDoc\Notes\NormsSAR\NOSAR\data\fuzzy_rules\social_interpretation3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Rule</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>IF (PERSONAL_VOCABULARY IS high) THEN (PERSONAL IS vhpc)</t>
+  </si>
+  <si>
+    <t>IF (ROLE_SUBORDINATE IS high) THEN (SPEED_VOICE IS high_speed)</t>
+  </si>
+  <si>
+    <t>IF (ROLE_SUBORDINATE IS low) THEN (SPEED_VOICE IS mid_speed)</t>
+  </si>
+  <si>
+    <t>IF (ROLE_SUBORDINATE IS high) THEN (VOLUME IS high_volume)</t>
   </si>
 </sst>
 </file>
@@ -386,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +494,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/fuzzy_rules/social_interpretation3/rules.xlsx
+++ b/data/fuzzy_rules/social_interpretation3/rules.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Rule</t>
   </si>
@@ -68,9 +68,6 @@
     <t>IF (PUBLIC IS vhpc) THEN (VOLUME IS high_volume)</t>
   </si>
   <si>
-    <t>IF (PERSONAL_VOCABULARY IS high) THEN (PERSONAL IS vhpc)</t>
-  </si>
-  <si>
     <t>IF (ROLE_SUBORDINATE IS high) THEN (SPEED_VOICE IS high_speed)</t>
   </si>
   <si>
@@ -78,6 +75,15 @@
   </si>
   <si>
     <t>IF (ROLE_SUBORDINATE IS high) THEN (VOLUME IS high_volume)</t>
+  </si>
+  <si>
+    <t>IF (ROLE_SUBORDINATE IS low) THEN (TONE_VOICE IS mid_tone)</t>
+  </si>
+  <si>
+    <t>IF (ROLE_SUBORDINATE IS high) THEN (TONE_VOICE IS low_tone)</t>
+  </si>
+  <si>
+    <t>IF (PERSONAL_VOCABULARY IS high) THEN (PERSONAL IS vvhpc)</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +462,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -496,7 +502,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -504,7 +510,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -512,9 +518,25 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
         <v>7</v>
       </c>
     </row>
